--- a/prep_and_checklists/Stefanie Gal Bridal Shower  /PREP_REQ_Stefanie Gal Bridal Shower  _Thursday, September 4, 2025  _0.xlsx
+++ b/prep_and_checklists/Stefanie Gal Bridal Shower  /PREP_REQ_Stefanie Gal Bridal Shower  _Thursday, September 4, 2025  _0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Stefanie Gal Bridal Shower  /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8B79AE-AD16-414A-A714-88C87762FD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2941A7-95E3-7847-A12A-6717663DA50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13300" yWindow="1200" windowWidth="29940" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="1200" windowWidth="29940" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prep Req" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>EVENT PREP 08-15-2025</t>
   </si>
@@ -101,6 +101,24 @@
   </si>
   <si>
     <t>1 case</t>
+  </si>
+  <si>
+    <t>clean mixed greens</t>
+  </si>
+  <si>
+    <t>3 cases</t>
+  </si>
+  <si>
+    <t>make / pull citrus-tahini vinaigrette</t>
+  </si>
+  <si>
+    <t>pull / make crispy quinoa za'atar</t>
+  </si>
+  <si>
+    <t>1 pint</t>
+  </si>
+  <si>
+    <t>station salads</t>
   </si>
 </sst>
 </file>
@@ -174,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,8 +201,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD8D8D8"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor rgb="FFD8D8D8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -267,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -288,12 +312,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -319,6 +337,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,9 +577,9 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="36.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="39.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="45.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="22.83203125" style="2" customWidth="1"/>
     <col min="7" max="22" width="8.83203125" style="2" customWidth="1"/>
@@ -558,14 +588,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -583,57 +613,57 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:22" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
     </row>
     <row r="3" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="9"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -652,20 +682,20 @@
       <c r="V3" s="3"/>
     </row>
     <row r="4" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="9"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -684,19 +714,19 @@
       <c r="V4" s="3"/>
     </row>
     <row r="5" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="4"/>
       <c r="G5" s="5"/>
       <c r="H5" s="3"/>
@@ -716,19 +746,19 @@
       <c r="V5" s="3"/>
     </row>
     <row r="6" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="6"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -748,20 +778,20 @@
       <c r="V6" s="3"/>
     </row>
     <row r="7" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -780,20 +810,20 @@
       <c r="V7" s="3"/>
     </row>
     <row r="8" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="9"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -812,20 +842,20 @@
       <c r="V8" s="3"/>
     </row>
     <row r="9" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="9"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -844,19 +874,19 @@
       <c r="V9" s="3"/>
     </row>
     <row r="10" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="4"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -876,11 +906,19 @@
       <c r="V10" s="3"/>
     </row>
     <row r="11" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+      <c r="A11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="12"/>
       <c r="F11" s="4"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -900,11 +938,19 @@
       <c r="V11" s="3"/>
     </row>
     <row r="12" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="A12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="10"/>
       <c r="F12" s="6"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -924,11 +970,19 @@
       <c r="V12" s="3"/>
     </row>
     <row r="13" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="A13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="12"/>
       <c r="F13" s="4"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -948,11 +1002,11 @@
       <c r="V13" s="3"/>
     </row>
     <row r="14" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="4"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -972,11 +1026,11 @@
       <c r="V14" s="3"/>
     </row>
     <row r="15" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="4"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -996,11 +1050,11 @@
       <c r="V15" s="3"/>
     </row>
     <row r="16" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="4"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -1020,11 +1074,11 @@
       <c r="V16" s="3"/>
     </row>
     <row r="17" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="4"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -1044,11 +1098,11 @@
       <c r="V17" s="3"/>
     </row>
     <row r="18" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
       <c r="F18" s="6"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1068,11 +1122,11 @@
       <c r="V18" s="3"/>
     </row>
     <row r="19" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="4"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1092,11 +1146,11 @@
       <c r="V19" s="3"/>
     </row>
     <row r="20" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="4"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1116,11 +1170,11 @@
       <c r="V20" s="3"/>
     </row>
     <row r="21" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
       <c r="F21" s="6"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -1140,11 +1194,11 @@
       <c r="V21" s="3"/>
     </row>
     <row r="22" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
       <c r="F22" s="6"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1164,11 +1218,11 @@
       <c r="V22" s="3"/>
     </row>
     <row r="23" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
       <c r="F23" s="6"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1188,11 +1242,11 @@
       <c r="V23" s="3"/>
     </row>
     <row r="24" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
       <c r="F24" s="6"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -1212,11 +1266,11 @@
       <c r="V24" s="3"/>
     </row>
     <row r="25" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
       <c r="F25" s="6"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -1236,11 +1290,11 @@
       <c r="V25" s="3"/>
     </row>
     <row r="26" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
       <c r="F26" s="4"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -1260,11 +1314,11 @@
       <c r="V26" s="3"/>
     </row>
     <row r="27" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
       <c r="F27" s="4"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -1284,11 +1338,11 @@
       <c r="V27" s="3"/>
     </row>
     <row r="28" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="4"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -1308,11 +1362,11 @@
       <c r="V28" s="3"/>
     </row>
     <row r="29" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
       <c r="F29" s="4"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -1332,11 +1386,11 @@
       <c r="V29" s="3"/>
     </row>
     <row r="30" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
       <c r="F30" s="4"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -1356,11 +1410,11 @@
       <c r="V30" s="3"/>
     </row>
     <row r="31" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
       <c r="F31" s="4"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -1380,11 +1434,11 @@
       <c r="V31" s="3"/>
     </row>
     <row r="32" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
       <c r="F32" s="4"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -1404,11 +1458,11 @@
       <c r="V32" s="3"/>
     </row>
     <row r="33" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
       <c r="F33" s="4"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -1428,11 +1482,11 @@
       <c r="V33" s="3"/>
     </row>
     <row r="34" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
       <c r="F34" s="4"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -1452,11 +1506,11 @@
       <c r="V34" s="3"/>
     </row>
     <row r="35" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
       <c r="F35" s="4"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -1476,11 +1530,11 @@
       <c r="V35" s="3"/>
     </row>
     <row r="36" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
       <c r="F36" s="4"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -1500,11 +1554,11 @@
       <c r="V36" s="3"/>
     </row>
     <row r="37" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
       <c r="F37" s="4"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -1524,11 +1578,11 @@
       <c r="V37" s="3"/>
     </row>
     <row r="38" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
       <c r="F38" s="4"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -1548,11 +1602,11 @@
       <c r="V38" s="3"/>
     </row>
     <row r="39" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
       <c r="F39" s="6"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -1572,12 +1626,12 @@
       <c r="V39" s="3"/>
     </row>
     <row r="40" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="11"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="9"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -1596,12 +1650,12 @@
       <c r="V40" s="3"/>
     </row>
     <row r="41" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="11"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="9"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -1620,12 +1674,12 @@
       <c r="V41" s="3"/>
     </row>
     <row r="42" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="11"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="9"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -1644,12 +1698,12 @@
       <c r="V42" s="3"/>
     </row>
     <row r="43" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="11"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="9"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -1668,12 +1722,12 @@
       <c r="V43" s="3"/>
     </row>
     <row r="44" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="11"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="9"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -1692,12 +1746,12 @@
       <c r="V44" s="3"/>
     </row>
     <row r="45" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="11"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="9"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -1716,12 +1770,12 @@
       <c r="V45" s="3"/>
     </row>
     <row r="46" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="11"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="9"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -1740,12 +1794,12 @@
       <c r="V46" s="3"/>
     </row>
     <row r="47" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="11"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="9"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -1764,172 +1818,172 @@
       <c r="V47" s="3"/>
     </row>
     <row r="48" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="11"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="9"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="11"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="9"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="11"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="9"/>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="11"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="9"/>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="11"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="9"/>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="11"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="9"/>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="11"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="9"/>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="11"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="9"/>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="11"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="9"/>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="11"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="9"/>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="11"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="9"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="11"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="9"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="11"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="9"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="11"/>
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="9"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="11"/>
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="9"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="11"/>
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="9"/>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="11"/>
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="9"/>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="11"/>
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="9"/>
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="12"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="11"/>
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="9"/>
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="11"/>
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="9"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="12"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="11"/>
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="9"/>
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/prep_and_checklists/Stefanie Gal Bridal Shower  /PREP_REQ_Stefanie Gal Bridal Shower  _Thursday, September 4, 2025  _0.xlsx
+++ b/prep_and_checklists/Stefanie Gal Bridal Shower  /PREP_REQ_Stefanie Gal Bridal Shower  _Thursday, September 4, 2025  _0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Stefanie Gal Bridal Shower  /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2941A7-95E3-7847-A12A-6717663DA50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71265F8-6AE9-A046-A659-F815160FF498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="1200" windowWidth="29940" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="1160" windowWidth="29940" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prep Req" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>EVENT PREP 08-15-2025</t>
   </si>
@@ -103,22 +103,25 @@
     <t>1 case</t>
   </si>
   <si>
-    <t>clean mixed greens</t>
-  </si>
-  <si>
     <t>3 cases</t>
   </si>
   <si>
-    <t>make / pull citrus-tahini vinaigrette</t>
-  </si>
-  <si>
-    <t>pull / make crispy quinoa za'atar</t>
-  </si>
-  <si>
-    <t>1 pint</t>
-  </si>
-  <si>
     <t>station salads</t>
+  </si>
+  <si>
+    <t>clean romaine</t>
+  </si>
+  <si>
+    <t>croutons</t>
+  </si>
+  <si>
+    <t>caesar dressing</t>
+  </si>
+  <si>
+    <t>2 quarts</t>
+  </si>
+  <si>
+    <t>4 quarts</t>
   </si>
 </sst>
 </file>
@@ -331,10 +334,6 @@
     <xf numFmtId="16" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -350,6 +349,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,7 +574,7 @@
   <dimension ref="A1:V985"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -588,14 +591,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -613,41 +616,41 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:22" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
     </row>
     <row r="3" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -746,7 +749,7 @@
       <c r="V5" s="3"/>
     </row>
     <row r="6" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -778,7 +781,7 @@
       <c r="V6" s="3"/>
     </row>
     <row r="7" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -810,7 +813,7 @@
       <c r="V7" s="3"/>
     </row>
     <row r="8" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -842,10 +845,10 @@
       <c r="V8" s="3"/>
     </row>
     <row r="9" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -874,14 +877,14 @@
       <c r="V9" s="3"/>
     </row>
     <row r="10" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>7</v>
@@ -906,14 +909,14 @@
       <c r="V10" s="3"/>
     </row>
     <row r="11" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="C11" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>7</v>
@@ -938,14 +941,14 @@
       <c r="V11" s="3"/>
     </row>
     <row r="12" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>23</v>
+      <c r="A12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>7</v>
@@ -970,14 +973,14 @@
       <c r="V12" s="3"/>
     </row>
     <row r="13" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="13" t="s">
         <v>31</v>
       </c>
+      <c r="B13" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="C13" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>7</v>
